--- a/Mod07/Bases/Base Devoluções.xlsx
+++ b/Mod07/Bases/Base Devoluções.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98A8C1FA-2D7A-4BF6-8747-C3207B95D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devoluções" sheetId="1" r:id="rId1"/>
@@ -16,11 +17,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -146,7 +142,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,16 +232,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
@@ -16515,8 +16511,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1141"/>
-  <sortState ref="A2:D1300">
+  <autoFilter ref="A1:D1141" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D1300">
     <sortCondition ref="D2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
